--- a/src/main/java/kr/co/programmers/P42860.xlsx
+++ b/src/main/java/kr/co/programmers/P42860.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\dev\projects\algorithm\src\main\java\kr\co\programmers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63CC210B-5B74-4F34-9975-4B2687E177E5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0075C50-BD90-40C8-8A14-3F02714965C2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4005" yWindow="420" windowWidth="21555" windowHeight="14760" activeTab="1" xr2:uid="{CEE77EC6-1076-4A23-A598-9188512DD324}"/>
+    <workbookView xWindow="1020" yWindow="615" windowWidth="19680" windowHeight="14130" activeTab="1" xr2:uid="{CEE77EC6-1076-4A23-A598-9188512DD324}"/>
   </bookViews>
   <sheets>
     <sheet name="▲▼" sheetId="1" r:id="rId1"/>
@@ -939,7 +939,7 @@
   <dimension ref="B4:E30"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1341,7 +1341,7 @@
   <dimension ref="B2:S12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1495,6 +1495,7 @@
         <v>1</v>
       </c>
       <c r="R7" s="4">
+        <f>R6+Q7</f>
         <v>1</v>
       </c>
       <c r="S7" s="1" t="s">
@@ -1523,6 +1524,7 @@
         <v>1</v>
       </c>
       <c r="R8" s="4">
+        <f t="shared" ref="R8:R9" si="0">R7+Q8</f>
         <v>2</v>
       </c>
       <c r="S8" s="1" t="s">
@@ -1557,6 +1559,7 @@
         <v>3</v>
       </c>
       <c r="R9" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="S9" s="1" t="s">
@@ -1585,6 +1588,7 @@
         <v>1</v>
       </c>
       <c r="R10" s="29">
+        <f>R9+Q10</f>
         <v>6</v>
       </c>
       <c r="S10" s="1" t="s">
@@ -1630,7 +1634,7 @@
   <dimension ref="B4:Q19"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+      <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1764,6 +1768,7 @@
         <v>9</v>
       </c>
       <c r="P7" s="4">
+        <f>P6+O7</f>
         <v>9</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -1789,9 +1794,10 @@
       <c r="M8" s="37"/>
       <c r="N8" s="41"/>
       <c r="O8" s="18">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="P8" s="4">
+        <f t="shared" ref="P8:P16" si="0">P7+O8</f>
         <v>10</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -1818,6 +1824,7 @@
         <v>4</v>
       </c>
       <c r="P9" s="4">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -1846,6 +1853,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="4">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -1872,6 +1880,7 @@
         <v>9</v>
       </c>
       <c r="P11" s="4">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="Q11" s="1" t="s">
@@ -1900,6 +1909,7 @@
         <v>1</v>
       </c>
       <c r="P12" s="4">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="Q12" s="1" t="s">
@@ -1926,6 +1936,7 @@
         <v>12</v>
       </c>
       <c r="P13" s="4">
+        <f t="shared" si="0"/>
         <v>37</v>
       </c>
       <c r="Q13" s="1" t="s">
@@ -1954,6 +1965,7 @@
         <v>1</v>
       </c>
       <c r="P14" s="4">
+        <f t="shared" si="0"/>
         <v>38</v>
       </c>
       <c r="Q14" s="1" t="s">
@@ -1980,6 +1992,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="4">
+        <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="Q15" s="1" t="s">
@@ -2008,6 +2021,7 @@
         <v>1</v>
       </c>
       <c r="P16" s="4">
+        <f t="shared" si="0"/>
         <v>43</v>
       </c>
       <c r="Q16" s="1" t="s">
@@ -2034,6 +2048,7 @@
         <v>13</v>
       </c>
       <c r="P17" s="29">
+        <f>P16+O17</f>
         <v>56</v>
       </c>
       <c r="Q17" s="1" t="s">
@@ -2075,7 +2090,7 @@
   <dimension ref="B4:K11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2164,6 +2179,7 @@
         <v>9</v>
       </c>
       <c r="J7" s="4">
+        <f>J6+I7</f>
         <v>9</v>
       </c>
       <c r="K7" s="1" t="s">
@@ -2186,6 +2202,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="4">
+        <f>J7+I8</f>
         <v>10</v>
       </c>
       <c r="K8" s="1" t="s">
@@ -2206,6 +2223,7 @@
         <v>13</v>
       </c>
       <c r="J9" s="29">
+        <f>J8+I9</f>
         <v>23</v>
       </c>
       <c r="K9" s="1" t="s">
@@ -2238,7 +2256,7 @@
   <dimension ref="B2:AE27"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ15" sqref="AJ15"/>
+      <selection activeCell="AK3" sqref="AK3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2484,6 +2502,7 @@
         <v>1</v>
       </c>
       <c r="AD7" s="4">
+        <f>AD6+AC7</f>
         <v>1</v>
       </c>
       <c r="AE7" s="1" t="s">
@@ -2524,6 +2543,7 @@
         <v>1</v>
       </c>
       <c r="AD8" s="4">
+        <f t="shared" ref="AD8:AD11" si="0">AD7+AC8</f>
         <v>2</v>
       </c>
       <c r="AE8" s="1" t="s">
@@ -2568,6 +2588,7 @@
         <v>2</v>
       </c>
       <c r="AD9" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="AE9" s="1" t="s">
@@ -2608,6 +2629,7 @@
         <v>1</v>
       </c>
       <c r="AD10" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AE10" s="1" t="s">
@@ -2658,6 +2680,7 @@
         <v>5</v>
       </c>
       <c r="AD11" s="4">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="AE11" s="1" t="s">
@@ -2698,6 +2721,7 @@
         <v>1</v>
       </c>
       <c r="AD12" s="29">
+        <f>AD11+AC12</f>
         <v>11</v>
       </c>
       <c r="AE12" s="1" t="s">
@@ -2960,6 +2984,7 @@
         <v>2</v>
       </c>
       <c r="AD21" s="4">
+        <f>AD20+AC21</f>
         <v>2</v>
       </c>
       <c r="AE21" s="1" t="s">
@@ -3000,6 +3025,7 @@
         <v>1</v>
       </c>
       <c r="AD22" s="4">
+        <f t="shared" ref="AD22:AD25" si="1">AD21+AC22</f>
         <v>3</v>
       </c>
       <c r="AE22" s="1" t="s">
@@ -3046,6 +3072,7 @@
         <v>3</v>
       </c>
       <c r="AD23" s="4">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="AE23" s="1" t="s">
@@ -3086,6 +3113,7 @@
         <v>1</v>
       </c>
       <c r="AD24" s="4">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
       <c r="AE24" s="1" t="s">
@@ -3130,6 +3158,7 @@
         <v>2</v>
       </c>
       <c r="AD25" s="4">
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
       <c r="AE25" s="1" t="s">
@@ -3167,9 +3196,10 @@
       <c r="AA26" s="25"/>
       <c r="AB26" s="34"/>
       <c r="AC26" s="23">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="29">
+        <f>AD25+AC26</f>
         <v>10</v>
       </c>
       <c r="AE26" s="1" t="s">
@@ -3229,7 +3259,7 @@
   <dimension ref="B2:O10"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3355,6 +3385,7 @@
         <v>2</v>
       </c>
       <c r="N7" s="4">
+        <f>N6+M7</f>
         <v>2</v>
       </c>
       <c r="O7" s="1" t="s">
@@ -3379,6 +3410,7 @@
         <v>1</v>
       </c>
       <c r="N8" s="29">
+        <f>N7+M8</f>
         <v>3</v>
       </c>
       <c r="O8" s="1" t="s">
@@ -3418,7 +3450,7 @@
   <dimension ref="B2:U12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+      <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3589,6 +3621,7 @@
         <v>2</v>
       </c>
       <c r="T7" s="4">
+        <f>T6+S7</f>
         <v>2</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -3619,6 +3652,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="4">
+        <f t="shared" ref="T8:T9" si="0">T7+S8</f>
         <v>3</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -3655,6 +3689,7 @@
         <v>3</v>
       </c>
       <c r="T9" s="4">
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="U9" s="1" t="s">
@@ -3685,6 +3720,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="29">
+        <f>T9+S10</f>
         <v>7</v>
       </c>
       <c r="U10" s="1" t="s">
@@ -3734,7 +3770,7 @@
   <dimension ref="B2:Q12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC11" sqref="AC11"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3873,6 +3909,7 @@
         <v>1</v>
       </c>
       <c r="P7" s="4">
+        <f>P6+O7</f>
         <v>1</v>
       </c>
       <c r="Q7" s="1" t="s">
@@ -3899,6 +3936,7 @@
         <v>1</v>
       </c>
       <c r="P8" s="4">
+        <f t="shared" ref="P8:P9" si="0">P7+O8</f>
         <v>2</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -3929,6 +3967,7 @@
         <v>2</v>
       </c>
       <c r="P9" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="Q9" s="1" t="s">
@@ -3955,6 +3994,7 @@
         <v>1</v>
       </c>
       <c r="P10" s="29">
+        <f>P9+O10</f>
         <v>5</v>
       </c>
       <c r="Q10" s="1" t="s">
@@ -3997,7 +4037,7 @@
   <dimension ref="B2:U14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X22" sqref="X22"/>
+      <selection activeCell="T13" sqref="T13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4166,6 +4206,7 @@
         <v>1</v>
       </c>
       <c r="T7" s="4">
+        <f>T6+S7</f>
         <v>1</v>
       </c>
       <c r="U7" s="1" t="s">
@@ -4196,6 +4237,7 @@
         <v>1</v>
       </c>
       <c r="T8" s="4">
+        <f t="shared" ref="T8:T11" si="0">T7+S8</f>
         <v>2</v>
       </c>
       <c r="U8" s="1" t="s">
@@ -4230,6 +4272,7 @@
         <v>2</v>
       </c>
       <c r="T9" s="4">
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="U9" s="1" t="s">
@@ -4260,6 +4303,7 @@
         <v>1</v>
       </c>
       <c r="T10" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="U10" s="1" t="s">
@@ -4296,6 +4340,7 @@
         <v>3</v>
       </c>
       <c r="T11" s="4">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="U11" s="1" t="s">
@@ -4326,6 +4371,7 @@
         <v>1</v>
       </c>
       <c r="T12" s="29">
+        <f>T11+S12</f>
         <v>9</v>
       </c>
       <c r="U12" s="1" t="s">
@@ -4375,7 +4421,7 @@
   <dimension ref="B2:AA12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA19" sqref="AA19"/>
+      <selection activeCell="AA13" sqref="AA13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4589,6 +4635,7 @@
         <v>1</v>
       </c>
       <c r="Z7" s="4">
+        <f>Z6+Y7</f>
         <v>1</v>
       </c>
       <c r="AA7" s="1" t="s">
@@ -4625,6 +4672,7 @@
         <v>1</v>
       </c>
       <c r="Z8" s="4">
+        <f t="shared" ref="Z8:Z9" si="0">Z7+Y8</f>
         <v>2</v>
       </c>
       <c r="AA8" s="1" t="s">
@@ -4667,6 +4715,7 @@
         <v>3</v>
       </c>
       <c r="Z9" s="4">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="AA9" s="1" t="s">
@@ -4703,6 +4752,7 @@
         <v>1</v>
       </c>
       <c r="Z10" s="29">
+        <f>Z9+Y10</f>
         <v>6</v>
       </c>
       <c r="AA10" s="1" t="s">
